--- a/pred_ohlcv/54_21/2020-01-24 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-21711.35729999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25993.99219999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26039.28759999999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-22254.13619999999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-23542.8461</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-33142.33839999999</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-63115.56240000001</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-71135.98550000001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-73134.93610000001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-80134.93610000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-82133.88680000001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-119761.5167</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-116964.7261</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-113836.9214289643</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-22721.12629999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-21711.35729999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-20919.53329999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-25993.99219999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-25903.28759999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-26039.28759999999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-22254.13619999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-23542.8461</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-23754.2064</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-24019.2064</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-33207.73409999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-60630.97110000001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-63115.56240000001</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-64510.56240000001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-71135.98550000001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-73134.93610000001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-80134.93610000001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-82133.88680000001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-119507.7424</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-119250.0919</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-119052.3672</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-119761.5167</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-119764.7261</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-116964.7261</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-114347.0705289643</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-114236.9214289643</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-113836.9214289643</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-111036.9214289643</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
